--- a/日常工作/2022-10-06/团队业绩_2022.09.07.00.00.00_2022.10.07.00.00.00.xlsx
+++ b/日常工作/2022-10-06/团队业绩_2022.09.07.00.00.00_2022.10.07.00.00.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\2022-10-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28199A7D-9436-4F2C-8C7B-F4FF8ADB9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB43D4D-D1A2-4E56-B646-EDF42C8E06EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2523,6 +2523,12 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <f>SUM(D2:D96)</f>
+        <v>1467043</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:F3"/>
